--- a/biology/Botanique/Scleropodium/Scleropodium.xlsx
+++ b/biology/Botanique/Scleropodium/Scleropodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scleropodium est un genre de Bryophytes de la famille des Brachytheciaceae de l'ordre des Hypnales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juin 2013) :
 Scleropodium australe
 Scleropodium brachyphyllum
 Scleropodium californicum
@@ -523,7 +537,7 @@
 Scleropodium obtusifolium
 Scleropodium subcaespitosum
 Scleropodium touretii
-Selon ITIS      (19 juin 2013)[2] :
+Selon ITIS      (19 juin 2013) :
 variété Scleropodium cespitans var. cespitans (C. Müll.) L. Koch
 variété Scleropodium cespitans var. sublaeve (Ren. &amp; Card. in Röll) Wijk &amp; Marg.
 variété Scleropodium touretii var. colpophyllum (Sull.) Lawt. ex Crum
@@ -533,13 +547,13 @@
 Scleropodium julaceum Lawt.
 Scleropodium obtusifolium (Jaeg.) Kindb. in Mac. &amp; Kindb.
 Scleropodium touretii (Brid.) L. Koch
-Selon NCBI  (19 juin 2013)[3] :
+Selon NCBI  (19 juin 2013) :
 Scleropodium californicum
 Scleropodium cespitans
 Scleropodium julaceum
 Scleropodium obtusifolium
 Scleropodium touretii
-Selon Tropicos                                           (19 juin 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (19 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 Scleropodium ambiguum (De Not.) A. Jaeger
 Scleropodium apiculigerum (Lindb. &amp; Arnell) J.-P. Frahm
 Scleropodium aplocladum (Mitt.) Grout
